--- a/downloads/ww.xlsx
+++ b/downloads/ww.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="102">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -60,14 +60,274 @@
   </si>
   <si>
     <t>მომუშავე ავტობუსების რაოდენობა</t>
+  </si>
+  <si>
+    <t>პუნქტი "A"</t>
+  </si>
+  <si>
+    <t>გასვლები "A" პუნქტიდან</t>
+  </si>
+  <si>
+    <t>პუნქტი "B"</t>
+  </si>
+  <si>
+    <t>გასვლები "B" პუნქტიდან</t>
+  </si>
+  <si>
+    <t>MAN A-47</t>
+  </si>
+  <si>
+    <t>22:12</t>
+  </si>
+  <si>
+    <t>22:37</t>
+  </si>
+  <si>
+    <t>BMC Procity</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>22:02</t>
+  </si>
+  <si>
+    <t>22:34</t>
+  </si>
+  <si>
+    <t>Isuzu Novociti Life</t>
+  </si>
+  <si>
+    <t>21:57</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:40</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>MAN A-21</t>
+  </si>
+  <si>
+    <t>22:07</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>22:29</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>22:46</t>
+  </si>
+  <si>
+    <t>21:34</t>
+  </si>
+  <si>
+    <t>22:01</t>
+  </si>
+  <si>
+    <t>21:44</t>
+  </si>
+  <si>
+    <t>22:36</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>22:20</t>
+  </si>
+  <si>
+    <t>22:24</t>
+  </si>
+  <si>
+    <t>21:27</t>
+  </si>
+  <si>
+    <t>21:58</t>
+  </si>
+  <si>
+    <t>22:42</t>
+  </si>
+  <si>
+    <t>22:38</t>
+  </si>
+  <si>
+    <t>22:11</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>22:13</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t>21:56</t>
+  </si>
+  <si>
+    <t>21:29</t>
+  </si>
+  <si>
+    <t>22:33</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:06</t>
+  </si>
+  <si>
+    <t>22:43</t>
+  </si>
+  <si>
+    <t>22:22</t>
+  </si>
+  <si>
+    <t>22:44</t>
+  </si>
+  <si>
+    <t>22:14</t>
+  </si>
+  <si>
+    <t>22:04</t>
+  </si>
+  <si>
+    <t>21:39</t>
+  </si>
+  <si>
+    <t>21:55</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>22:39</t>
+  </si>
+  <si>
+    <t>21:48</t>
+  </si>
+  <si>
+    <t>21:54</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>22:41</t>
+  </si>
+  <si>
+    <t>22:31</t>
+  </si>
+  <si>
+    <t>22:28</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19:29</t>
+  </si>
+  <si>
+    <t>20:59</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>21:42</t>
+  </si>
+  <si>
+    <t>21:52</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>22:32</t>
+  </si>
+  <si>
+    <t>21:31</t>
+  </si>
+  <si>
+    <t>21:59</t>
+  </si>
+  <si>
+    <t>22:53</t>
+  </si>
+  <si>
+    <t>22:19</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>21:51</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>22:27</t>
+  </si>
+  <si>
+    <t>22:26</t>
+  </si>
+  <si>
+    <t>22:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="HH:mm"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -75,8 +335,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +377,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,44 +420,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.515625" customWidth="true"/>
-    <col min="2" max="2" width="3.515625" customWidth="true"/>
-    <col min="3" max="3" width="3.515625" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="5.078125" customWidth="true"/>
-    <col min="6" max="6" width="5.078125" customWidth="true"/>
-    <col min="7" max="7" width="5.078125" customWidth="true"/>
-    <col min="8" max="8" width="5.078125" customWidth="true"/>
-    <col min="9" max="9" width="5.078125" customWidth="true"/>
-    <col min="10" max="10" width="5.078125" customWidth="true"/>
-    <col min="11" max="11" width="5.078125" customWidth="true"/>
-    <col min="12" max="12" width="5.078125" customWidth="true"/>
-    <col min="13" max="13" width="5.078125" customWidth="true"/>
-    <col min="14" max="14" width="5.078125" customWidth="true"/>
-    <col min="20" max="20" width="5.078125" customWidth="true"/>
+    <col min="1" max="1" width="4.6875" customWidth="true"/>
+    <col min="2" max="2" width="4.6875" customWidth="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true"/>
+    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="17.578125" customWidth="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true"/>
+    <col min="8" max="8" width="8.203125" customWidth="true"/>
+    <col min="9" max="9" width="8.203125" customWidth="true"/>
+    <col min="10" max="10" width="8.203125" customWidth="true"/>
+    <col min="11" max="11" width="8.203125" customWidth="true"/>
+    <col min="12" max="12" width="8.203125" customWidth="true"/>
+    <col min="13" max="13" width="8.203125" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
+    <col min="15" max="15" width="8.203125" customWidth="true"/>
+    <col min="16" max="16" width="8.203125" customWidth="true"/>
+    <col min="17" max="17" width="27.34375" customWidth="true"/>
+    <col min="18" max="18" width="8.203125" customWidth="true"/>
+    <col min="19" max="19" width="8.203125" customWidth="true"/>
+    <col min="20" max="20" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -227,12 +632,2614 @@
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" ht="80.0" customHeight="true">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O5" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O6" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O9" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O13" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O15" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O16" t="s" s="17">
+        <v>37</v>
+      </c>
+      <c r="P16" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O18" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="P18" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="P19" t="s" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O20" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O21" t="s" s="22">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O23" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O24" t="s" s="25">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="s" s="27">
+        <v>56</v>
+      </c>
+      <c r="P26" t="s" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O27" t="s" s="28">
+        <v>58</v>
+      </c>
+      <c r="P27" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O28" t="s" s="29">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="s" s="31">
+        <v>47</v>
+      </c>
+      <c r="P30" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O31" t="s" s="32">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O32" t="s" s="33">
+        <v>36</v>
+      </c>
+      <c r="P32" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O33" t="s" s="34">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O34" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="P34" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="s" s="36">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O36" t="s" s="37">
+        <v>31</v>
+      </c>
+      <c r="P36" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O37" t="s" s="38">
+        <v>31</v>
+      </c>
+      <c r="P37" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O38" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O39" t="s" s="40">
+        <v>31</v>
+      </c>
+      <c r="P39" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O40" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="P40" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="s" s="42">
+        <v>37</v>
+      </c>
+      <c r="P41" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O42" t="s" s="43">
+        <v>67</v>
+      </c>
+      <c r="P42" t="s" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="s" s="44">
+        <v>46</v>
+      </c>
+      <c r="P43" t="s" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O44" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="P44" t="s" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.099998474121094</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" t="s" s="46">
+        <v>48</v>
+      </c>
+      <c r="P45" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O46" t="s" s="47">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O47" t="s" s="48">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O48" t="s" s="49">
+        <v>48</v>
+      </c>
+      <c r="P48" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O49" t="s" s="50">
+        <v>71</v>
+      </c>
+      <c r="P49" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O50" t="s" s="51">
+        <v>39</v>
+      </c>
+      <c r="P50" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="n" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="O51" t="s" s="52">
+        <v>46</v>
+      </c>
+      <c r="P51" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="s" s="53">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="s" s="54">
+        <v>72</v>
+      </c>
+      <c r="P53" t="s" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O54" t="s" s="55">
+        <v>73</v>
+      </c>
+      <c r="P54" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O55" t="s" s="56">
+        <v>49</v>
+      </c>
+      <c r="P55" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="s" s="57">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O57" t="s" s="58">
+        <v>48</v>
+      </c>
+      <c r="P57" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O58" t="s" s="59">
+        <v>55</v>
+      </c>
+      <c r="P58" t="s" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O59" t="s" s="60">
+        <v>77</v>
+      </c>
+      <c r="P59" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O60" t="s" s="61">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="s" s="62">
+        <v>66</v>
+      </c>
+      <c r="P61" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" t="s" s="63">
+        <v>78</v>
+      </c>
+      <c r="P62" t="s" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" t="s" s="64">
+        <v>46</v>
+      </c>
+      <c r="P63" t="s" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="s" s="65">
+        <v>36</v>
+      </c>
+      <c r="P64" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O65" t="s" s="66">
+        <v>39</v>
+      </c>
+      <c r="P65" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O66" t="s" s="67">
+        <v>62</v>
+      </c>
+      <c r="P66" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O67" t="s" s="68">
+        <v>31</v>
+      </c>
+      <c r="P67" t="s" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="s" s="69">
+        <v>50</v>
+      </c>
+      <c r="P68" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O69" t="s" s="70">
+        <v>65</v>
+      </c>
+      <c r="P69" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O70" t="s" s="71">
+        <v>49</v>
+      </c>
+      <c r="P70" t="s" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" t="s" s="72">
+        <v>37</v>
+      </c>
+      <c r="P71" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O72" t="s" s="73">
+        <v>31</v>
+      </c>
+      <c r="P72" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O73" t="s" s="74">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O74" t="s" s="75">
+        <v>46</v>
+      </c>
+      <c r="P74" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O75" t="s" s="76">
+        <v>84</v>
+      </c>
+      <c r="P75" t="s" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O76" t="s" s="77">
+        <v>86</v>
+      </c>
+      <c r="P76" t="s" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O77" t="s" s="78">
+        <v>87</v>
+      </c>
+      <c r="P77" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O78" t="s" s="79">
+        <v>63</v>
+      </c>
+      <c r="P78" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O79" t="s" s="80">
+        <v>77</v>
+      </c>
+      <c r="P79" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O80" t="s" s="81">
+        <v>88</v>
+      </c>
+      <c r="P80" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O81" t="s" s="82">
+        <v>89</v>
+      </c>
+      <c r="P81" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O82" t="s" s="83">
+        <v>31</v>
+      </c>
+      <c r="P82" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O83" t="s" s="84">
+        <v>73</v>
+      </c>
+      <c r="P83" t="s" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O84" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="P84" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O85" t="s" s="86">
+        <v>42</v>
+      </c>
+      <c r="P85" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O86" t="s" s="87">
+        <v>91</v>
+      </c>
+      <c r="P86" t="s" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O87" t="s" s="88">
+        <v>39</v>
+      </c>
+      <c r="P87" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O88" t="s" s="89">
+        <v>92</v>
+      </c>
+      <c r="P88" t="s" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O89" t="s" s="90">
+        <v>43</v>
+      </c>
+      <c r="P89" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="s" s="91">
+        <v>73</v>
+      </c>
+      <c r="P90" t="s" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O91" t="s" s="92">
+        <v>95</v>
+      </c>
+      <c r="P91" t="s" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O92" t="s" s="93">
+        <v>96</v>
+      </c>
+      <c r="P92" t="s" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O93" t="s" s="94">
+        <v>98</v>
+      </c>
+      <c r="P93" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O94" t="s" s="95">
+        <v>31</v>
+      </c>
+      <c r="P94" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O95" t="s" s="96">
+        <v>66</v>
+      </c>
+      <c r="P95" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O96" t="s" s="97">
+        <v>31</v>
+      </c>
+      <c r="P96" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O97" t="s" s="98">
+        <v>51</v>
+      </c>
+      <c r="P97" t="s" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O98" t="s" s="99">
+        <v>21</v>
+      </c>
+      <c r="P98" t="s" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O99" t="s" s="100">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="s" s="101">
+        <v>74</v>
+      </c>
+      <c r="P100" t="s" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O101" t="s" s="102">
+        <v>33</v>
+      </c>
+      <c r="P101" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="n" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O102" t="s" s="103">
+        <v>99</v>
+      </c>
+      <c r="P102" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O103" t="s" s="104">
+        <v>49</v>
+      </c>
+      <c r="P103" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O104" t="s" s="105">
+        <v>49</v>
+      </c>
+      <c r="P104" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O105" t="s" s="106">
+        <v>58</v>
+      </c>
+      <c r="P105" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O106" t="s" s="107">
+        <v>54</v>
+      </c>
+      <c r="P106" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O107" t="s" s="108">
+        <v>79</v>
+      </c>
+      <c r="P107" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O108" t="s" s="109">
+        <v>100</v>
+      </c>
+      <c r="P108" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="n" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O109" t="s" s="110">
+        <v>49</v>
+      </c>
+      <c r="P109" t="s" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O110" t="s" s="111">
+        <v>101</v>
+      </c>
+      <c r="P110" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O111" t="s" s="112">
+        <v>71</v>
+      </c>
+      <c r="P111" t="s" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O112" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="P112" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O113" t="s" s="114">
+        <v>50</v>
+      </c>
+      <c r="P113" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O114" t="s" s="115">
+        <v>94</v>
+      </c>
+      <c r="P114" t="s" s="4">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -248,6 +3255,8 @@
     <mergeCell ref="N1:S2"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
